--- a/data/speaking.xlsx
+++ b/data/speaking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ueanorwich-my.sharepoint.com/personal/hpd08ucu_uea_ac_uk/Documents/CV/PL_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C83E40C-97B1-4B9F-88C5-2D822EE8BB7A}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EF045C15-52C2-4341-8FFF-A98D2BEDC32A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
-  <si>
-    <t>Tutor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>when</t>
   </si>
@@ -40,12 +37,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Invited Plenary</t>
-  </si>
-  <si>
-    <t>Conference</t>
-  </si>
-  <si>
     <t>OCR Science Forum</t>
   </si>
   <si>
@@ -55,106 +46,88 @@
     <t>why</t>
   </si>
   <si>
-    <t>HEA</t>
-  </si>
-  <si>
-    <t>Bio-Summit</t>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>UEA CEEC Rebellion</t>
+  </si>
+  <si>
+    <t>Entomological Society of America</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Society of Molecular Biology &amp; Evolution</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Dry Labs Real Science</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Department of Genetics</t>
+  </si>
+  <si>
+    <t>AMSCUE</t>
+  </si>
+  <si>
+    <t>"Online Molecular Biology Labs"</t>
+  </si>
+  <si>
+    <t>"Genetic Pest Management: knocking out pest species with applied genetics"</t>
+  </si>
+  <si>
+    <t>The impact of COVID-19, present and future</t>
+  </si>
+  <si>
+    <t>HUBS Bio-Summit</t>
+  </si>
+  <si>
+    <t>"Molecular Biology tools for Online teaching"</t>
+  </si>
+  <si>
+    <t>Higher Education Academy Talks</t>
+  </si>
+  <si>
+    <t>"Synchronous on-line teaching in the biomedical sciences - Discovering how coronavirus PCR testing works"</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>"Using Electronic Lab Notebooks to improve reflective practises in learning"</t>
+  </si>
+  <si>
+    <t>"Localised gene drives for insect population control"</t>
+  </si>
+  <si>
+    <t>"The microbiome of the mediterranean fruit fly"</t>
+  </si>
+  <si>
+    <t>"What makes a successful male? Strategies for improved insect pest management"</t>
+  </si>
+  <si>
+    <t>"An introduction to genetic pest management"</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>Vancouver</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>UEA CEEC Rebellion</t>
-  </si>
-  <si>
-    <t>Entomological Society of America</t>
-  </si>
-  <si>
-    <t>Vienna</t>
-  </si>
-  <si>
-    <t>Society of Molecular Biology &amp; Evolution</t>
-  </si>
-  <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>Evolution</t>
-  </si>
-  <si>
-    <t>Flying through the Gut</t>
-  </si>
-  <si>
-    <t>Seminar</t>
-  </si>
-  <si>
-    <t>Dry Labs Real Science</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Department of Genetics</t>
-  </si>
-  <si>
-    <t>The Brilliant Club</t>
-  </si>
-  <si>
-    <t>2014-2016</t>
-  </si>
-  <si>
-    <t>Norfolk</t>
-  </si>
-  <si>
-    <t>Outreach</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Royal Society Summer Science</t>
-  </si>
-  <si>
-    <t>Exhibit</t>
-  </si>
-  <si>
-    <t>2010-2012</t>
-  </si>
-  <si>
-    <t>Villier's Park Educational Trust</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>BBC World Service</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Interview</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Motherboard-Vice</t>
-  </si>
-  <si>
-    <t>BBC News</t>
-  </si>
-  <si>
-    <t>Bioinformatics Virtual Coordination Network</t>
-  </si>
-  <si>
-    <t>Instructor</t>
+    <t>Plenary</t>
   </si>
 </sst>
 </file>
@@ -995,38 +968,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
     <col min="4" max="5" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1034,16 +1007,19 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1051,101 +1027,119 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1153,16 +1147,19 @@
         <v>2020</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1170,16 +1167,19 @@
         <v>2020</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1187,135 +1187,19 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2014</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2020</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/speaking.xlsx
+++ b/data/speaking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ueanorwich-my.sharepoint.com/personal/hpd08ucu_uea_ac_uk/Documents/CV/PL_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EF045C15-52C2-4341-8FFF-A98D2BEDC32A}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9539FBA-ED6E-45E8-A885-4B1104EC3145}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>when</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Plenary</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>UNIPI International Workshop on Multidisciplinary studies for sustainable agriculture</t>
+  </si>
+  <si>
+    <t>"Evolutionary Biology and Genetic Pest Control"</t>
   </si>
 </sst>
 </file>
@@ -968,21 +977,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="5" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,27 +1011,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1030,19 +1039,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1050,119 +1059,119 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1170,35 +1179,55 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/speaking.xlsx
+++ b/data/speaking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ueanorwich-my.sharepoint.com/personal/hpd08ucu_uea_ac_uk/Documents/CV/PL_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9539FBA-ED6E-45E8-A885-4B1104EC3145}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3818E8A-7329-48F8-89DE-48A7DFCF61B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="2640" windowWidth="21585" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>when</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>"Evolutionary Biology and Genetic Pest Control"</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Heads of University Biosciences</t>
+  </si>
+  <si>
+    <t>"The fundamentals of data management and analysis"</t>
   </si>
 </sst>
 </file>
@@ -977,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,22 +1022,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,19 +1045,19 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,16 +1068,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,33 +1088,33 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1113,39 +1122,39 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1153,19 +1162,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -1173,22 +1182,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,13 +1208,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1213,21 +1222,41 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/speaking.xlsx
+++ b/data/speaking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ueanorwich-my.sharepoint.com/personal/hpd08ucu_uea_ac_uk/Documents/CV/PL_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3818E8A-7329-48F8-89DE-48A7DFCF61B6}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{369F6679-D90F-48E5-80BA-B2A0698F37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9D23778-D38E-41FC-88FA-80D93AF8DD77}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2640" windowWidth="21585" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -82,21 +82,12 @@
     <t>AMSCUE</t>
   </si>
   <si>
-    <t>"Online Molecular Biology Labs"</t>
-  </si>
-  <si>
-    <t>"Genetic Pest Management: knocking out pest species with applied genetics"</t>
-  </si>
-  <si>
     <t>The impact of COVID-19, present and future</t>
   </si>
   <si>
     <t>HUBS Bio-Summit</t>
   </si>
   <si>
-    <t>"Molecular Biology tools for Online teaching"</t>
-  </si>
-  <si>
     <t>Higher Education Academy Talks</t>
   </si>
   <si>
@@ -109,15 +100,9 @@
     <t>Education</t>
   </si>
   <si>
-    <t>"Using Electronic Lab Notebooks to improve reflective practises in learning"</t>
-  </si>
-  <si>
     <t>"Localised gene drives for insect population control"</t>
   </si>
   <si>
-    <t>"The microbiome of the mediterranean fruit fly"</t>
-  </si>
-  <si>
     <t>"What makes a successful male? Strategies for improved insect pest management"</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>UNIPI International Workshop on Multidisciplinary studies for sustainable agriculture</t>
   </si>
   <si>
-    <t>"Evolutionary Biology and Genetic Pest Control"</t>
-  </si>
-  <si>
     <t>Norwich</t>
   </si>
   <si>
@@ -146,6 +128,24 @@
   </si>
   <si>
     <t>"The fundamentals of data management and analysis"</t>
+  </si>
+  <si>
+    <t>"Evolutionary biology and genetic pest control"</t>
+  </si>
+  <si>
+    <t>"Online molecular biology labs"</t>
+  </si>
+  <si>
+    <t>"Genetic pest management: knocking out pest species with applied genetics"</t>
+  </si>
+  <si>
+    <t>"Using electronic lab notebooks to improve reflective practises in learning"</t>
+  </si>
+  <si>
+    <t>"The microbiome of the Mediterranean fruit fly"</t>
+  </si>
+  <si>
+    <t>"Molecular biology tools for online teaching"</t>
   </si>
 </sst>
 </file>
@@ -989,18 +989,18 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="5" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,47 +1020,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1071,16 +1071,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1111,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1128,19 +1128,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -1154,13 +1154,13 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1171,16 +1171,16 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1191,16 +1191,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1211,16 +1211,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1228,19 +1228,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -1254,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
